--- a/NformTester/NformTester/Keywordscripts/700.30.90_DataLogHistoryforDevicesshowingtheresultssuccessandfailed.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.90_DataLogHistoryforDevicesshowingtheresultssuccessandfailed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="9510"/>
@@ -1204,7 +1204,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3703,12 +3703,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMP_GXT_1$</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3735,6 +3729,14 @@
   </si>
   <si>
     <t>Data log file exported successfully.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3834,6 +3836,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3952,7 +3955,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4008,16 +4011,17 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="4"/>
     <cellStyle name="常规 2 2 3" xfId="6"/>
     <cellStyle name="常规 2 3" xfId="5"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4460,7 +4464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4746,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4952,20 +4956,20 @@
       <c r="H6" s="21" t="s">
         <v>820</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>822</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>825</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="4"/>
@@ -4975,7 +4979,7 @@
         <v>758</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -5075,8 +5079,8 @@
       <c r="G10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>822</v>
+      <c r="H10" s="23" t="s">
+        <v>830</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -5587,7 +5591,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="7"/>
@@ -5621,7 +5625,7 @@
         <v>811</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J30" s="7" t="b">
         <v>0</v>
@@ -5652,7 +5656,7 @@
         <v>811</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J31" s="7" t="b">
         <v>0</v>
@@ -5753,13 +5757,13 @@
         <v>7</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>828</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
